--- a/WebRoot/templet/hgyjbf.xlsx
+++ b/WebRoot/templet/hgyjbf.xlsx
@@ -4,70 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="16665" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15885" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>删除第一行示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在用标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-03-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.标准aa
-2.标准bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.依据aa
-2.依据bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,19 +39,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提供合理依据文号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政支付凭证账户名称</t>
+  </si>
+  <si>
     <t>预留印鉴单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供合理依据文号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级分行认定意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财政支付凭证账户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,22 +88,6 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -179,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,17 +135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,85 +442,61 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="10.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="1" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>11223344</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3">
-        <v>9501</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3"/>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
